--- a/biology/Médecine/Louis_Félix_Terrier/Louis_Félix_Terrier.xlsx
+++ b/biology/Médecine/Louis_Félix_Terrier/Louis_Félix_Terrier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Louis_F%C3%A9lix_Terrier</t>
+          <t>Louis_Félix_Terrier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Félix Terrier, né le 31 août 1837 à Paris, et mort le 8 avril 1908 dans la même ville, est un chirurgien français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louis_F%C3%A9lix_Terrier</t>
+          <t>Louis_Félix_Terrier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Felix Terrier devient docteur en médecine à Paris en 1870 et professeur de chirurgie à la faculté de médecine en 1892[1]. Il est l'auteur, entre autres, du Manuel de pathologie chirurgicale (1877) et des Éléments de pathologie chirurgicale générale (1885).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Felix Terrier devient docteur en médecine à Paris en 1870 et professeur de chirurgie à la faculté de médecine en 1892. Il est l'auteur, entre autres, du Manuel de pathologie chirurgicale (1877) et des Éléments de pathologie chirurgicale générale (1885).
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Louis_F%C3%A9lix_Terrier</t>
+          <t>Louis_Félix_Terrier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +556,14 @@
           <t>Hommages et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1890 : membre de l'Académie de médecine, section de pathologie chirurgicale[1].
-1900 : commandeur de la Légion d'honneur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1890 : membre de l'Académie de médecine, section de pathologie chirurgicale.
+1900 : commandeur de la Légion d'honneur.
 Une plaque commémorative est installée 11 rue de Solférino (7e arrondissement de Paris), où il vécut.
-La rue Félix-Terrier, dans le 20e arrondissement de Paris, lui rend hommage[1].
+La rue Félix-Terrier, dans le 20e arrondissement de Paris, lui rend hommage.
 </t>
         </is>
       </c>
